--- a/data/trans_orig/Q5407-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5407-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD753554-1758-4175-83C8-2F87E79E9079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBC5F501-8D77-42EB-8BD6-8C365E0545C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9233C767-224F-432D-BF76-1154A2AF00DE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5EDEBE20-C876-4EC6-97B5-CBFE520A3A64}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="130">
   <si>
     <t>Población según si es capaz de subir y bajar las escaleras en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -101,82 +101,82 @@
     <t>2,02%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
   </si>
   <si>
     <t>8,04%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
   </si>
   <si>
     <t>11,86%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
   </si>
   <si>
     <t>89,93%</t>
   </si>
   <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
   </si>
   <si>
     <t>82,47%</t>
   </si>
   <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
   </si>
   <si>
     <t>85,65%</t>
   </si>
   <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
   </si>
   <si>
     <t>100%</t>
@@ -191,82 +191,79 @@
     <t>6,23%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
   </si>
   <si>
     <t>11,97%</t>
   </si>
   <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
   </si>
   <si>
     <t>9,5%</t>
   </si>
   <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
   </si>
   <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
   </si>
   <si>
     <t>13,89%</t>
   </si>
   <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
   </si>
   <si>
     <t>84,02%</t>
   </si>
   <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
   </si>
   <si>
     <t>74,14%</t>
   </si>
   <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
   </si>
   <si>
     <t>78,39%</t>
   </si>
   <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
   </si>
   <si>
     <t>Población según si es capaz de subir y bajar las escaleras en 2015 (Tasa respuesta: 19,52%)</t>
@@ -275,82 +272,82 @@
     <t>5,46%</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
   </si>
   <si>
     <t>7,13%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
   </si>
   <si>
     <t>6,41%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
   </si>
   <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
   </si>
   <si>
     <t>17,21%</t>
   </si>
   <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
   </si>
   <si>
     <t>13,46%</t>
   </si>
   <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
   </si>
   <si>
     <t>86,01%</t>
   </si>
   <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
   </si>
   <si>
     <t>75,66%</t>
   </si>
   <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
   </si>
   <si>
     <t>80,13%</t>
   </si>
   <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
   </si>
   <si>
     <t>Población según si es capaz de subir y bajar las escaleras en 2023 (Tasa respuesta: 31,21%)</t>
@@ -359,82 +356,79 @@
     <t>6,14%</t>
   </si>
   <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
   </si>
   <si>
     <t>8,65%</t>
   </si>
   <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
   </si>
   <si>
     <t>9,54%</t>
   </si>
   <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
   </si>
   <si>
     <t>17,07%</t>
   </si>
   <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
+    <t>19,81%</t>
   </si>
   <si>
     <t>14,02%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
   </si>
   <si>
     <t>84,32%</t>
   </si>
   <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
   </si>
   <si>
     <t>72,58%</t>
   </si>
   <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
   </si>
   <si>
     <t>77,33%</t>
   </si>
   <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
   </si>
 </sst>
 </file>
@@ -846,7 +840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB0E28E8-7B0E-43A7-8408-68D67B3E0D4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6146439F-AD58-4FF2-8FD6-92EE5F8C9260}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2302,7 +2296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F5784A-5BA0-4AC6-B0D3-95A1D3E49EC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A79275-19EC-4614-8B3C-4428FB8F9C7D}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3417,13 +3411,13 @@
         <v>157757</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3432,13 @@
         <v>470211</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H26" s="7">
         <v>518</v>
@@ -3453,13 +3447,13 @@
         <v>550860</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M26" s="7">
         <v>945</v>
@@ -3468,13 +3462,13 @@
         <v>1021071</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,13 +3617,13 @@
         <v>157757</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,13 +3638,13 @@
         <v>470211</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H30" s="7">
         <v>518</v>
@@ -3659,13 +3653,13 @@
         <v>550860</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M30" s="7">
         <v>945</v>
@@ -3674,13 +3668,13 @@
         <v>1021071</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,7 +3752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8790FF6-5228-49F2-8A76-502D54C87CE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC46CB0-B0A8-4E90-B14A-43FCDFB765E5}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3775,7 +3769,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4792,13 +4786,13 @@
         <v>32260</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H24" s="7">
         <v>43</v>
@@ -4807,13 +4801,13 @@
         <v>55450</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M24" s="7">
         <v>78</v>
@@ -4822,13 +4816,13 @@
         <v>87710</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4837,13 @@
         <v>50478</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H25" s="7">
         <v>109</v>
@@ -4858,13 +4852,13 @@
         <v>133864</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M25" s="7">
         <v>166</v>
@@ -4873,13 +4867,13 @@
         <v>184342</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4894,13 +4888,13 @@
         <v>508590</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H26" s="7">
         <v>503</v>
@@ -4909,13 +4903,13 @@
         <v>588617</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M26" s="7">
         <v>1038</v>
@@ -4924,13 +4918,13 @@
         <v>1097207</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4998,13 +4992,13 @@
         <v>32260</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H28" s="7">
         <v>43</v>
@@ -5013,13 +5007,13 @@
         <v>55450</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M28" s="7">
         <v>78</v>
@@ -5028,13 +5022,13 @@
         <v>87710</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5049,13 +5043,13 @@
         <v>50478</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H29" s="7">
         <v>109</v>
@@ -5064,13 +5058,13 @@
         <v>133864</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M29" s="7">
         <v>166</v>
@@ -5079,13 +5073,13 @@
         <v>184342</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,13 +5094,13 @@
         <v>508590</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H30" s="7">
         <v>503</v>
@@ -5115,13 +5109,13 @@
         <v>588617</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M30" s="7">
         <v>1038</v>
@@ -5130,13 +5124,13 @@
         <v>1097207</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,7 +5208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBD6698-EE46-4FA1-9FB7-2644FA34C9A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4568D144-90B4-4CA8-9558-3B76C5B7CD74}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5231,7 +5225,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6248,13 +6242,13 @@
         <v>42727</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H24" s="7">
         <v>202</v>
@@ -6263,13 +6257,13 @@
         <v>105948</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M24" s="7">
         <v>273</v>
@@ -6278,13 +6272,13 @@
         <v>148675</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6299,13 +6293,13 @@
         <v>66406</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H25" s="7">
         <v>310</v>
@@ -6314,13 +6308,13 @@
         <v>174661</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M25" s="7">
         <v>408</v>
@@ -6329,13 +6323,13 @@
         <v>241066</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6350,13 +6344,13 @@
         <v>587029</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H26" s="7">
         <v>1191</v>
@@ -6365,13 +6359,13 @@
         <v>742654</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M26" s="7">
         <v>2048</v>
@@ -6380,13 +6374,13 @@
         <v>1329683</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6454,13 +6448,13 @@
         <v>42727</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H28" s="7">
         <v>202</v>
@@ -6469,13 +6463,13 @@
         <v>105948</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M28" s="7">
         <v>273</v>
@@ -6484,13 +6478,13 @@
         <v>148675</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6505,13 +6499,13 @@
         <v>66406</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H29" s="7">
         <v>310</v>
@@ -6520,13 +6514,13 @@
         <v>174661</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M29" s="7">
         <v>408</v>
@@ -6535,13 +6529,13 @@
         <v>241066</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6556,13 +6550,13 @@
         <v>587029</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H30" s="7">
         <v>1191</v>
@@ -6571,13 +6565,13 @@
         <v>742654</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M30" s="7">
         <v>2048</v>
@@ -6586,13 +6580,13 @@
         <v>1329683</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5407-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5407-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBC5F501-8D77-42EB-8BD6-8C365E0545C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEBD3FFC-8A9A-46DD-AC05-9AF6FEE76FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5EDEBE20-C876-4EC6-97B5-CBFE520A3A64}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CAFF0DB9-2707-466E-9A82-BDAA302865F5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="131">
   <si>
     <t>Población según si es capaz de subir y bajar las escaleras en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -101,10 +101,10 @@
     <t>2,02%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
   </si>
   <si>
     <t>5,67%</t>
@@ -113,175 +113,178 @@
     <t>4,15%</t>
   </si>
   <si>
-    <t>7,98%</t>
+    <t>7,78%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
   </si>
   <si>
     <t>8,04%</t>
   </si>
   <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
   </si>
   <si>
     <t>11,86%</t>
   </si>
   <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>8,45%</t>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de subir y bajar las escaleras en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
   </si>
   <si>
     <t>12,11%</t>
   </si>
   <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de subir y bajar las escaleras en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
   </si>
   <si>
     <t>84,02%</t>
   </si>
   <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
   </si>
   <si>
     <t>74,14%</t>
   </si>
   <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
   </si>
   <si>
     <t>78,39%</t>
   </si>
   <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de subir y bajar las escaleras en 2015 (Tasa respuesta: 19,52%)</t>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de subir y bajar las escaleras en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
     <t>5,46%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
   </si>
   <si>
     <t>7,13%</t>
   </si>
   <si>
-    <t>5,34%</t>
+    <t>5,22%</t>
   </si>
   <si>
     <t>9,36%</t>
@@ -290,64 +293,64 @@
     <t>6,41%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
   </si>
   <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
   </si>
   <si>
     <t>17,21%</t>
   </si>
   <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
   </si>
   <si>
     <t>13,46%</t>
   </si>
   <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
   </si>
   <si>
     <t>86,01%</t>
   </si>
   <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
   </si>
   <si>
     <t>75,66%</t>
   </si>
   <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
   </si>
   <si>
     <t>80,13%</t>
   </si>
   <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
   </si>
   <si>
     <t>Población según si es capaz de subir y bajar las escaleras en 2023 (Tasa respuesta: 31,21%)</t>
@@ -840,7 +843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6146439F-AD58-4FF2-8FD6-92EE5F8C9260}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5D8FC0-687F-4ABE-B2B2-1E2BF61AA085}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2296,7 +2299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A79275-19EC-4614-8B3C-4428FB8F9C7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C5001C-6D88-46BC-B9FE-FBA96533B0DF}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3411,13 +3414,13 @@
         <v>157757</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3435,13 @@
         <v>470211</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H26" s="7">
         <v>518</v>
@@ -3447,13 +3450,13 @@
         <v>550860</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M26" s="7">
         <v>945</v>
@@ -3462,13 +3465,13 @@
         <v>1021071</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,13 +3620,13 @@
         <v>157757</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,13 +3641,13 @@
         <v>470211</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H30" s="7">
         <v>518</v>
@@ -3653,13 +3656,13 @@
         <v>550860</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M30" s="7">
         <v>945</v>
@@ -3668,13 +3671,13 @@
         <v>1021071</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,7 +3755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC46CB0-B0A8-4E90-B14A-43FCDFB765E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A11CB65-E80D-4023-A03C-D5DD01B9B0A2}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3769,7 +3772,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4786,13 +4789,13 @@
         <v>32260</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H24" s="7">
         <v>43</v>
@@ -4801,13 +4804,13 @@
         <v>55450</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M24" s="7">
         <v>78</v>
@@ -4816,13 +4819,13 @@
         <v>87710</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4840,13 @@
         <v>50478</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H25" s="7">
         <v>109</v>
@@ -4852,13 +4855,13 @@
         <v>133864</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M25" s="7">
         <v>166</v>
@@ -4867,13 +4870,13 @@
         <v>184342</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4891,13 @@
         <v>508590</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H26" s="7">
         <v>503</v>
@@ -4903,13 +4906,13 @@
         <v>588617</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M26" s="7">
         <v>1038</v>
@@ -4918,13 +4921,13 @@
         <v>1097207</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +4995,13 @@
         <v>32260</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H28" s="7">
         <v>43</v>
@@ -5007,13 +5010,13 @@
         <v>55450</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M28" s="7">
         <v>78</v>
@@ -5022,13 +5025,13 @@
         <v>87710</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,13 +5046,13 @@
         <v>50478</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H29" s="7">
         <v>109</v>
@@ -5058,13 +5061,13 @@
         <v>133864</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M29" s="7">
         <v>166</v>
@@ -5073,13 +5076,13 @@
         <v>184342</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,13 +5097,13 @@
         <v>508590</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H30" s="7">
         <v>503</v>
@@ -5109,13 +5112,13 @@
         <v>588617</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M30" s="7">
         <v>1038</v>
@@ -5124,13 +5127,13 @@
         <v>1097207</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,7 +5211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4568D144-90B4-4CA8-9558-3B76C5B7CD74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41EC1D9C-0A32-4372-A2F2-74E28771EC0D}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5225,7 +5228,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6242,13 +6245,13 @@
         <v>42727</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H24" s="7">
         <v>202</v>
@@ -6257,13 +6260,13 @@
         <v>105948</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M24" s="7">
         <v>273</v>
@@ -6272,13 +6275,13 @@
         <v>148675</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6293,13 +6296,13 @@
         <v>66406</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H25" s="7">
         <v>310</v>
@@ -6308,13 +6311,13 @@
         <v>174661</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M25" s="7">
         <v>408</v>
@@ -6323,13 +6326,13 @@
         <v>241066</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,13 +6347,13 @@
         <v>587029</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H26" s="7">
         <v>1191</v>
@@ -6359,13 +6362,13 @@
         <v>742654</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M26" s="7">
         <v>2048</v>
@@ -6374,13 +6377,13 @@
         <v>1329683</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6448,13 +6451,13 @@
         <v>42727</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H28" s="7">
         <v>202</v>
@@ -6463,13 +6466,13 @@
         <v>105948</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M28" s="7">
         <v>273</v>
@@ -6478,13 +6481,13 @@
         <v>148675</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,13 +6502,13 @@
         <v>66406</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H29" s="7">
         <v>310</v>
@@ -6514,13 +6517,13 @@
         <v>174661</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M29" s="7">
         <v>408</v>
@@ -6529,13 +6532,13 @@
         <v>241066</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,13 +6553,13 @@
         <v>587029</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H30" s="7">
         <v>1191</v>
@@ -6565,13 +6568,13 @@
         <v>742654</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M30" s="7">
         <v>2048</v>
@@ -6580,13 +6583,13 @@
         <v>1329683</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5407-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5407-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEBD3FFC-8A9A-46DD-AC05-9AF6FEE76FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37AC4118-6B5C-4388-9BDB-207DD5AA56CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CAFF0DB9-2707-466E-9A82-BDAA302865F5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FC30DB1B-2ED5-4CB9-8B80-BE7764234205}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="132">
   <si>
     <t>Población según si es capaz de subir y bajar las escaleras en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -101,37 +101,37 @@
     <t>2,02%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
   </si>
   <si>
     <t>8,04%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
   </si>
   <si>
     <t>11,86%</t>
@@ -140,43 +140,43 @@
     <t>9,49%</t>
   </si>
   <si>
-    <t>14,57%</t>
+    <t>14,43%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
   </si>
   <si>
     <t>89,93%</t>
   </si>
   <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
   </si>
   <si>
     <t>82,47%</t>
   </si>
   <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
   </si>
   <si>
     <t>85,65%</t>
   </si>
   <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
   </si>
   <si>
     <t>100%</t>
@@ -191,247 +191,250 @@
     <t>6,23%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
   </si>
   <si>
     <t>11,97%</t>
   </si>
   <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
   </si>
   <si>
     <t>9,5%</t>
   </si>
   <si>
-    <t>7,85%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de subir y bajar las escaleras en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de subir y bajar las escaleras en 2023 (Tasa respuesta: 31,21%)</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
   </si>
   <si>
     <t>11,27%</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de subir y bajar las escaleras en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de subir y bajar las escaleras en 2023 (Tasa respuesta: 31,21%)</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
+    <t>15,88%</t>
   </si>
   <si>
     <t>84,32%</t>
   </si>
   <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
   </si>
   <si>
     <t>72,58%</t>
   </si>
   <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
   </si>
   <si>
     <t>77,33%</t>
   </si>
   <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
   </si>
 </sst>
 </file>
@@ -843,7 +846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5D8FC0-687F-4ABE-B2B2-1E2BF61AA085}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0815B4-E459-4EC6-BC31-0C6066D01C8B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2299,7 +2302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C5001C-6D88-46BC-B9FE-FBA96533B0DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159665AA-0CA8-401C-B56F-B081301D50A5}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3755,7 +3758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A11CB65-E80D-4023-A03C-D5DD01B9B0A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860498C0-078D-4E41-ADE0-3A0A2B507B28}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5211,7 +5214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41EC1D9C-0A32-4372-A2F2-74E28771EC0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752DCF85-6C6B-4381-9BBF-68E461AA3174}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6314,10 +6317,10 @@
         <v>117</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M25" s="7">
         <v>408</v>
@@ -6326,13 +6329,13 @@
         <v>241066</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6347,13 +6350,13 @@
         <v>587029</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H26" s="7">
         <v>1191</v>
@@ -6362,13 +6365,13 @@
         <v>742654</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M26" s="7">
         <v>2048</v>
@@ -6377,13 +6380,13 @@
         <v>1329683</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6520,10 +6523,10 @@
         <v>117</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M29" s="7">
         <v>408</v>
@@ -6532,13 +6535,13 @@
         <v>241066</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6553,13 +6556,13 @@
         <v>587029</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H30" s="7">
         <v>1191</v>
@@ -6568,13 +6571,13 @@
         <v>742654</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M30" s="7">
         <v>2048</v>
@@ -6583,13 +6586,13 @@
         <v>1329683</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5407-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5407-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37AC4118-6B5C-4388-9BDB-207DD5AA56CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{233ADFD8-1839-4447-86F0-AEF635DFCF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FC30DB1B-2ED5-4CB9-8B80-BE7764234205}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AB4EB98A-4A55-49BD-A8CC-4FC68465AC93}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="335">
   <si>
     <t>Población según si es capaz de subir y bajar las escaleras en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Totalmente incapaz</t>
@@ -83,19 +83,184 @@
     <t>Sin ayuda</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>65 y más</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
   </si>
   <si>
     <t>2,02%</t>
@@ -179,15 +344,174 @@
     <t>87,6%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
     <t>Población según si es capaz de subir y bajar las escaleras en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
     <t>6,23%</t>
   </si>
   <si>
@@ -209,9 +533,6 @@
     <t>9,5%</t>
   </si>
   <si>
-    <t>7,95%</t>
-  </si>
-  <si>
     <t>11,33%</t>
   </si>
   <si>
@@ -272,6 +593,165 @@
     <t>Población según si es capaz de subir y bajar las escaleras en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
     <t>5,46%</t>
   </si>
   <si>
@@ -284,24 +764,15 @@
     <t>7,13%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
     <t>9,33%</t>
   </si>
   <si>
     <t>6,41%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
     <t>7,79%</t>
   </si>
   <si>
-    <t>8,54%</t>
-  </si>
-  <si>
     <t>6,39%</t>
   </si>
   <si>
@@ -320,12 +791,6 @@
     <t>13,46%</t>
   </si>
   <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
     <t>86,01%</t>
   </si>
   <si>
@@ -356,85 +821,229 @@
     <t>Población según si es capaz de subir y bajar las escaleras en 2023 (Tasa respuesta: 31,21%)</t>
   </si>
   <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
   </si>
 </sst>
 </file>
@@ -846,8 +1455,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0815B4-E459-4EC6-BC31-0C6066D01C8B}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA3A2122-664D-42F8-8F2F-5852F5611D69}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1874,10 +2483,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>10160</v>
+        <v>1758</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -1889,10 +2498,10 @@
         <v>21</v>
       </c>
       <c r="H24" s="7">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I24" s="7">
-        <v>38380</v>
+        <v>11566</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>22</v>
@@ -1904,10 +2513,10 @@
         <v>24</v>
       </c>
       <c r="M24" s="7">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="N24" s="7">
-        <v>48540</v>
+        <v>13324</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>25</v>
@@ -1925,10 +2534,10 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D25" s="7">
-        <v>40416</v>
+        <v>10902</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>28</v>
@@ -1940,34 +2549,34 @@
         <v>30</v>
       </c>
       <c r="H25" s="7">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="I25" s="7">
-        <v>80244</v>
+        <v>18448</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>31</v>
+      </c>
+      <c r="N25" s="7">
+        <v>29350</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="7">
-        <v>116</v>
-      </c>
-      <c r="N25" s="7">
-        <v>120660</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,49 +2585,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>469</v>
+        <v>290</v>
       </c>
       <c r="D26" s="7">
-        <v>451890</v>
+        <v>279922</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>339</v>
+      </c>
+      <c r="I26" s="7">
+        <v>312920</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="7">
-        <v>552</v>
-      </c>
-      <c r="I26" s="7">
-        <v>558217</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>629</v>
+      </c>
+      <c r="N26" s="7">
+        <v>592843</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M26" s="7">
-        <v>1021</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1010108</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,102 +2636,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M27" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N27" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" s="7">
-        <v>10160</v>
+        <v>8402</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I28" s="7">
-        <v>38380</v>
+        <v>26814</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="M28" s="7">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="N28" s="7">
-        <v>48540</v>
+        <v>35216</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,49 +2740,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D29" s="7">
-        <v>40416</v>
+        <v>29513</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="H29" s="7">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="I29" s="7">
-        <v>80244</v>
+        <v>61797</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="M29" s="7">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="N29" s="7">
-        <v>120660</v>
+        <v>91310</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2182,49 +2791,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>469</v>
+        <v>179</v>
       </c>
       <c r="D30" s="7">
-        <v>451890</v>
+        <v>171968</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="H30" s="7">
-        <v>552</v>
+        <v>213</v>
       </c>
       <c r="I30" s="7">
-        <v>558217</v>
+        <v>245297</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="M30" s="7">
-        <v>1021</v>
+        <v>392</v>
       </c>
       <c r="N30" s="7">
-        <v>1010108</v>
+        <v>417265</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2233,63 +2842,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="7">
+        <v>290</v>
+      </c>
+      <c r="I31" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" s="7">
+        <v>510</v>
+      </c>
+      <c r="N31" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>11</v>
+      </c>
+      <c r="D32" s="7">
+        <v>10160</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" s="7">
+        <v>36</v>
+      </c>
+      <c r="I32" s="7">
+        <v>38380</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M32" s="7">
+        <v>47</v>
+      </c>
+      <c r="N32" s="7">
+        <v>48540</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>43</v>
+      </c>
+      <c r="D33" s="7">
+        <v>40416</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="7">
+        <v>73</v>
+      </c>
+      <c r="I33" s="7">
+        <v>80244</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M33" s="7">
+        <v>116</v>
+      </c>
+      <c r="N33" s="7">
+        <v>120660</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>469</v>
+      </c>
+      <c r="D34" s="7">
+        <v>451890</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="7">
+        <v>552</v>
+      </c>
+      <c r="I34" s="7">
+        <v>558217</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1021</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1010108</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>523</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>502466</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="7">
         <v>661</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>676842</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M35" s="7">
         <v>1184</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1179308</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2302,8 +3118,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159665AA-0CA8-401C-B56F-B081301D50A5}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449DB129-4233-4DE4-8FD3-EE69555AF1A5}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2319,7 +3135,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3330,49 +4146,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D24" s="7">
-        <v>34853</v>
+        <v>12097</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="H24" s="7">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="I24" s="7">
-        <v>88930</v>
+        <v>17829</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="M24" s="7">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="N24" s="7">
-        <v>123784</v>
+        <v>29927</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,49 +4197,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D25" s="7">
-        <v>54573</v>
+        <v>12257</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="H25" s="7">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="I25" s="7">
-        <v>103184</v>
+        <v>27163</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="M25" s="7">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="N25" s="7">
-        <v>157757</v>
+        <v>39420</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,49 +4248,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>427</v>
+        <v>259</v>
       </c>
       <c r="D26" s="7">
-        <v>470211</v>
+        <v>285432</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="H26" s="7">
-        <v>518</v>
+        <v>301</v>
       </c>
       <c r="I26" s="7">
-        <v>550860</v>
+        <v>309003</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="M26" s="7">
-        <v>945</v>
+        <v>560</v>
       </c>
       <c r="N26" s="7">
-        <v>1021071</v>
+        <v>594435</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,102 +4299,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D27" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I27" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M27" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N27" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D28" s="7">
-        <v>34853</v>
+        <v>22756</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="H28" s="7">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="I28" s="7">
-        <v>88930</v>
+        <v>71101</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="M28" s="7">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="N28" s="7">
-        <v>123784</v>
+        <v>93857</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,49 +4403,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D29" s="7">
-        <v>54573</v>
+        <v>42316</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="H29" s="7">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="I29" s="7">
-        <v>103184</v>
+        <v>76021</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="M29" s="7">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="N29" s="7">
-        <v>157757</v>
+        <v>118337</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,49 +4454,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>427</v>
+        <v>168</v>
       </c>
       <c r="D30" s="7">
-        <v>470211</v>
+        <v>184779</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="H30" s="7">
-        <v>518</v>
+        <v>217</v>
       </c>
       <c r="I30" s="7">
-        <v>550860</v>
+        <v>241857</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="M30" s="7">
-        <v>945</v>
+        <v>385</v>
       </c>
       <c r="N30" s="7">
-        <v>1021071</v>
+        <v>426636</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,63 +4505,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>222</v>
+      </c>
+      <c r="D31" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="7">
+        <v>350</v>
+      </c>
+      <c r="I31" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" s="7">
+        <v>572</v>
+      </c>
+      <c r="N31" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>31</v>
+      </c>
+      <c r="D32" s="7">
+        <v>34853</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H32" s="7">
+        <v>81</v>
+      </c>
+      <c r="I32" s="7">
+        <v>88930</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M32" s="7">
+        <v>112</v>
+      </c>
+      <c r="N32" s="7">
+        <v>123784</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>46</v>
+      </c>
+      <c r="D33" s="7">
+        <v>54573</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H33" s="7">
+        <v>95</v>
+      </c>
+      <c r="I33" s="7">
+        <v>103184</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M33" s="7">
+        <v>141</v>
+      </c>
+      <c r="N33" s="7">
+        <v>157757</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>427</v>
+      </c>
+      <c r="D34" s="7">
+        <v>470211</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H34" s="7">
+        <v>518</v>
+      </c>
+      <c r="I34" s="7">
+        <v>550860</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M34" s="7">
+        <v>945</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1021071</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>504</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>559637</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="7">
         <v>694</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>742975</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M35" s="7">
         <v>1198</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1302612</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3758,8 +4781,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860498C0-078D-4E41-ADE0-3A0A2B507B28}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4A21AA-02C3-43CE-8185-D89FFB49BA51}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3775,7 +4798,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4786,49 +5809,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D24" s="7">
-        <v>32260</v>
+        <v>11340</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="H24" s="7">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="I24" s="7">
-        <v>55450</v>
+        <v>8751</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="M24" s="7">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="N24" s="7">
-        <v>87710</v>
+        <v>20091</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,49 +5860,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D25" s="7">
-        <v>50478</v>
+        <v>9004</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>88</v>
+        <v>194</v>
       </c>
       <c r="H25" s="7">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="I25" s="7">
-        <v>133864</v>
+        <v>39916</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>90</v>
+        <v>196</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>91</v>
+        <v>197</v>
       </c>
       <c r="M25" s="7">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="N25" s="7">
-        <v>184342</v>
+        <v>48920</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>92</v>
+        <v>198</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>93</v>
+        <v>199</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,49 +5911,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>535</v>
+        <v>305</v>
       </c>
       <c r="D26" s="7">
-        <v>508590</v>
+        <v>313986</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>95</v>
+        <v>201</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>97</v>
+        <v>203</v>
       </c>
       <c r="H26" s="7">
-        <v>503</v>
+        <v>309</v>
       </c>
       <c r="I26" s="7">
-        <v>588617</v>
+        <v>329095</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>98</v>
+        <v>204</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="M26" s="7">
-        <v>1038</v>
+        <v>614</v>
       </c>
       <c r="N26" s="7">
-        <v>1097207</v>
+        <v>643081</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>101</v>
+        <v>207</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>103</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,102 +5962,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D27" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I27" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M27" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N27" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>24</v>
+      </c>
+      <c r="D28" s="7">
+        <v>20921</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H28" s="7">
         <v>35</v>
       </c>
-      <c r="D28" s="7">
-        <v>32260</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H28" s="7">
-        <v>43</v>
-      </c>
       <c r="I28" s="7">
-        <v>55450</v>
+        <v>46699</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="M28" s="7">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="N28" s="7">
-        <v>87710</v>
+        <v>67620</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>85</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,49 +6066,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D29" s="7">
-        <v>50478</v>
+        <v>41474</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>86</v>
+        <v>219</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>87</v>
+        <v>220</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c r="H29" s="7">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="I29" s="7">
-        <v>133864</v>
+        <v>93947</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>90</v>
+        <v>223</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c r="M29" s="7">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="N29" s="7">
-        <v>184342</v>
+        <v>135422</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>92</v>
+        <v>225</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>93</v>
+        <v>226</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>94</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,49 +6117,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>535</v>
+        <v>230</v>
       </c>
       <c r="D30" s="7">
-        <v>508590</v>
+        <v>194603</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>95</v>
+        <v>228</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>96</v>
+        <v>229</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>97</v>
+        <v>230</v>
       </c>
       <c r="H30" s="7">
-        <v>503</v>
+        <v>194</v>
       </c>
       <c r="I30" s="7">
-        <v>588617</v>
+        <v>259522</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>98</v>
+        <v>231</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>99</v>
+        <v>232</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>100</v>
+        <v>233</v>
       </c>
       <c r="M30" s="7">
-        <v>1038</v>
+        <v>424</v>
       </c>
       <c r="N30" s="7">
-        <v>1097207</v>
+        <v>454126</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>101</v>
+        <v>234</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>103</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,63 +6168,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>302</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="7">
+        <v>301</v>
+      </c>
+      <c r="I31" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" s="7">
+        <v>603</v>
+      </c>
+      <c r="N31" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>35</v>
+      </c>
+      <c r="D32" s="7">
+        <v>32260</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H32" s="7">
+        <v>43</v>
+      </c>
+      <c r="I32" s="7">
+        <v>55450</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="M32" s="7">
+        <v>78</v>
+      </c>
+      <c r="N32" s="7">
+        <v>87710</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>57</v>
+      </c>
+      <c r="D33" s="7">
+        <v>50478</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H33" s="7">
+        <v>109</v>
+      </c>
+      <c r="I33" s="7">
+        <v>133864</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="M33" s="7">
+        <v>166</v>
+      </c>
+      <c r="N33" s="7">
+        <v>184342</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>535</v>
+      </c>
+      <c r="D34" s="7">
+        <v>508590</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H34" s="7">
+        <v>503</v>
+      </c>
+      <c r="I34" s="7">
+        <v>588617</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1038</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1097207</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>627</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>591328</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="7">
         <v>655</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>777931</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M35" s="7">
         <v>1282</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1369259</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5214,8 +6444,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{752DCF85-6C6B-4381-9BBF-68E461AA3174}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92E8A7E-5D73-4A8A-984A-1360F3C7AB4D}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5231,7 +6461,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>259</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6242,49 +7472,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="D24" s="7">
-        <v>42727</v>
+        <v>11041</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>105</v>
+        <v>260</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>106</v>
+        <v>261</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>107</v>
+        <v>262</v>
       </c>
       <c r="H24" s="7">
-        <v>202</v>
+        <v>29</v>
       </c>
       <c r="I24" s="7">
-        <v>105948</v>
+        <v>14099</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>109</v>
+        <v>263</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>110</v>
+        <v>264</v>
       </c>
       <c r="M24" s="7">
-        <v>273</v>
+        <v>47</v>
       </c>
       <c r="N24" s="7">
-        <v>148675</v>
+        <v>25140</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>111</v>
+        <v>265</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>112</v>
+        <v>266</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>113</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6293,49 +7523,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="D25" s="7">
-        <v>66406</v>
+        <v>18610</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>114</v>
+        <v>268</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>115</v>
+        <v>269</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>116</v>
+        <v>270</v>
       </c>
       <c r="H25" s="7">
-        <v>310</v>
+        <v>78</v>
       </c>
       <c r="I25" s="7">
-        <v>174661</v>
+        <v>38538</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>117</v>
+        <v>271</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>118</v>
+        <v>272</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>119</v>
+        <v>273</v>
       </c>
       <c r="M25" s="7">
-        <v>408</v>
+        <v>108</v>
       </c>
       <c r="N25" s="7">
-        <v>241066</v>
+        <v>57148</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>120</v>
+        <v>274</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>122</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,49 +7574,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>857</v>
+        <v>522</v>
       </c>
       <c r="D26" s="7">
-        <v>587029</v>
+        <v>338514</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>123</v>
+        <v>276</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>124</v>
+        <v>277</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>125</v>
+        <v>278</v>
       </c>
       <c r="H26" s="7">
-        <v>1191</v>
+        <v>718</v>
       </c>
       <c r="I26" s="7">
-        <v>742654</v>
+        <v>554728</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>126</v>
+        <v>279</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>127</v>
+        <v>280</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>128</v>
+        <v>281</v>
       </c>
       <c r="M26" s="7">
-        <v>2048</v>
+        <v>1240</v>
       </c>
       <c r="N26" s="7">
-        <v>1329683</v>
+        <v>893243</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>129</v>
+        <v>282</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>130</v>
+        <v>283</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>131</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6395,102 +7625,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1026</v>
+        <v>570</v>
       </c>
       <c r="D27" s="7">
-        <v>696161</v>
+        <v>368165</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="7">
-        <v>1703</v>
+        <v>825</v>
       </c>
       <c r="I27" s="7">
-        <v>1023263</v>
+        <v>607365</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M27" s="7">
-        <v>2729</v>
+        <v>1395</v>
       </c>
       <c r="N27" s="7">
-        <v>1719424</v>
+        <v>975531</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D28" s="7">
-        <v>42727</v>
+        <v>28751</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>105</v>
+        <v>285</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>106</v>
+        <v>286</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>107</v>
+        <v>287</v>
       </c>
       <c r="H28" s="7">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="I28" s="7">
-        <v>105948</v>
+        <v>81145</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>108</v>
+        <v>288</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>109</v>
+        <v>289</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="M28" s="7">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="N28" s="7">
-        <v>148675</v>
+        <v>109896</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>111</v>
+        <v>291</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>112</v>
+        <v>292</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>113</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,49 +7729,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="D29" s="7">
-        <v>66406</v>
+        <v>42304</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>114</v>
+        <v>294</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>115</v>
+        <v>295</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>116</v>
+        <v>223</v>
       </c>
       <c r="H29" s="7">
-        <v>310</v>
+        <v>232</v>
       </c>
       <c r="I29" s="7">
-        <v>174661</v>
+        <v>115966</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>117</v>
+        <v>296</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>118</v>
+        <v>297</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>119</v>
+        <v>298</v>
       </c>
       <c r="M29" s="7">
-        <v>408</v>
+        <v>300</v>
       </c>
       <c r="N29" s="7">
-        <v>241066</v>
+        <v>158271</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>120</v>
+        <v>299</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>121</v>
+        <v>300</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>122</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,49 +7780,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>857</v>
+        <v>335</v>
       </c>
       <c r="D30" s="7">
-        <v>587029</v>
+        <v>210227</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>123</v>
+        <v>302</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>124</v>
+        <v>303</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>125</v>
+        <v>304</v>
       </c>
       <c r="H30" s="7">
-        <v>1191</v>
+        <v>473</v>
       </c>
       <c r="I30" s="7">
-        <v>742654</v>
+        <v>226730</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>126</v>
+        <v>305</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>127</v>
+        <v>306</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>128</v>
+        <v>307</v>
       </c>
       <c r="M30" s="7">
-        <v>2048</v>
+        <v>808</v>
       </c>
       <c r="N30" s="7">
-        <v>1329683</v>
+        <v>436958</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>129</v>
+        <v>308</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>130</v>
+        <v>309</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>131</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6601,63 +7831,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>456</v>
+      </c>
+      <c r="D31" s="7">
+        <v>281282</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="7">
+        <v>878</v>
+      </c>
+      <c r="I31" s="7">
+        <v>423842</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1334</v>
+      </c>
+      <c r="N31" s="7">
+        <v>705125</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>71</v>
+      </c>
+      <c r="D32" s="7">
+        <v>39792</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H32" s="7">
+        <v>202</v>
+      </c>
+      <c r="I32" s="7">
+        <v>95244</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M32" s="7">
+        <v>273</v>
+      </c>
+      <c r="N32" s="7">
+        <v>135036</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>98</v>
+      </c>
+      <c r="D33" s="7">
+        <v>60914</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H33" s="7">
+        <v>310</v>
+      </c>
+      <c r="I33" s="7">
+        <v>154505</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="M33" s="7">
+        <v>408</v>
+      </c>
+      <c r="N33" s="7">
+        <v>215419</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>857</v>
+      </c>
+      <c r="D34" s="7">
+        <v>548742</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1191</v>
+      </c>
+      <c r="I34" s="7">
+        <v>781459</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="M34" s="7">
+        <v>2048</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1330200</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>1026</v>
       </c>
-      <c r="D31" s="7">
-        <v>696161</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>649448</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="7">
         <v>1703</v>
       </c>
-      <c r="I31" s="7">
-        <v>1023263</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>1031208</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M35" s="7">
         <v>2729</v>
       </c>
-      <c r="N31" s="7">
-        <v>1719424</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="N35" s="7">
+        <v>1680655</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
